--- a/biology/Médecine/Syndrome_d'Angelman/Syndrome_d'Angelman.xlsx
+++ b/biology/Médecine/Syndrome_d'Angelman/Syndrome_d'Angelman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Angelman</t>
+          <t>Syndrome_d'Angelman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome d'Angelman est un trouble grave du développement neurologique dont l'origine est génétique. Il est caractérisé par un retard sévère du développement avec déficience intellectuelle sévère, une absence de langage oral, des troubles de la motricité, de l'équilibre et de la sensorialité. Les personnes atteintes de ce syndrome sont souvent joyeuses, mais s'excitent à la moindre stimulation avec des rires fréquents[1].
-Le pédiatre et docteur britannique Harry Angelman décrit pour la première fois, dès 1965, les symptômes du syndrome. Avant cette description, les malades atteints par le syndrome d'Angelman étaient souvent diagnostiqués autistes. La prévalence de la maladie est estimée à un individu sur 12 000 à 20 000[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome d'Angelman est un trouble grave du développement neurologique dont l'origine est génétique. Il est caractérisé par un retard sévère du développement avec déficience intellectuelle sévère, une absence de langage oral, des troubles de la motricité, de l'équilibre et de la sensorialité. Les personnes atteintes de ce syndrome sont souvent joyeuses, mais s'excitent à la moindre stimulation avec des rires fréquents.
+Le pédiatre et docteur britannique Harry Angelman décrit pour la première fois, dès 1965, les symptômes du syndrome. Avant cette description, les malades atteints par le syndrome d'Angelman étaient souvent diagnostiqués autistes. La prévalence de la maladie est estimée à un individu sur 12 000 à 20 000.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Angelman</t>
+          <t>Syndrome_d'Angelman</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 De nombreuses caractéristiques du syndrome d'Angelman résultent de la perte de fonction d'un gène appelé UBE3A situé sur le chromosome 15. Les gens héritent normalement d'une copie du gène UBE3A de chaque parent. Les deux copies de ce gène sont activées (actives) dans de nombreux tissus du corps. Dans certaines régions du cerveau, cependant, seule la copie héritée de la mère d'une personne (la copie maternelle) est active. Cette activation génique spécifique au parent est causée par un phénomène appelé empreinte génomique. Si la copie maternelle du gène UBE3A est perdue en raison d'un changement chromosomique ou d'une mutation génique, une personne n'aura aucune copie active du gène dans certaines parties du cerveau.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Angelman</t>
+          <t>Syndrome_d'Angelman</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome d'Angelman est une maladie génétique complexe qui affecte principalement le système nerveux. Les caractéristiques de cette maladie comprennent un retard de développement, une déficience intellectuelle, une grave altération de la parole et des problèmes de mouvement et d'équilibre (ataxie). La plupart des enfants affectés ont également des crises récurrentes (épilepsie) et une petite taille de tête (microcéphalie). Un retard de développement devient perceptible vers l'âge de 6 à 12 mois, et d'autres signes et symptômes courants apparaissent généralement dès la petite enfance.
 Les enfants atteints du syndrome d'Angelman ont généralement un comportement heureux et excitable avec des mouvements fréquents de sourire, de rire et de battements de mains. L'hyperactivité, une courte durée d'attention et une fascination pour l'eau sont courantes. La plupart des enfants affectés ont également des difficultés à dormir et ont besoin de moins de sommeil que d'habitude.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Angelman</t>
+          <t>Syndrome_d'Angelman</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,16 +601,18 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les critères diagnostiques ont été établis par une conférence de consensus[3]. Il s'agit d'un nouveau-né dont le phénotype est normal. Actuellement le diagnostic du syndrome d’Angelman peut être posé souvent dès la première année, en se basant sur les signes cliniques :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les critères diagnostiques ont été établis par une conférence de consensus. Il s'agit d'un nouveau-né dont le phénotype est normal. Actuellement le diagnostic du syndrome d’Angelman peut être posé souvent dès la première année, en se basant sur les signes cliniques :
 Retard moteur, position assise acquise après 9 mois le plus souvent
 Sourires et rires facilement provoqués, parfois inattendus
 Langage quasi absent
 Hyperagitation avec difficultés gestuelles
 Troubles de l’équilibre
 Difficultés de concentration, hyperactivité
-Les tests les plus récents de dépistage prénatal non invasif (DPNI) réalisés par un simple prélèvement de sang maternel pour les femmes enceintes visent à isoler l'ADN fœtal et à identifier des anomalies chromosomique et notamment les risques de syndrome d'Angelman[4].
+Les tests les plus récents de dépistage prénatal non invasif (DPNI) réalisés par un simple prélèvement de sang maternel pour les femmes enceintes visent à isoler l'ADN fœtal et à identifier des anomalies chromosomique et notamment les risques de syndrome d'Angelman.
 </t>
         </is>
       </c>
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Angelman</t>
+          <t>Syndrome_d'Angelman</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,21 +641,23 @@
           <t>Signes cliniques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les individus souffrant de ce syndrome peuvent exposer plusieurs signes et symptômes, essentiellement neurologique. Ils incluent :
 Dans plus de 80 % des cas
 Des crises d’épilepsie débutant généralement avant 3 ans, avec des anomalies particulières de l’'électroencéphalogramme caractérisées par des ondes lentes de grande amplitude et des bouffées de pointes ondes.
 Des myoclonies : petites secousses des membres et des extrémités donnant l’impression d’un tremblement, clignements inhabituels des paupières.
 Des troubles du sommeil importants quel que soit l’âge.
-Un ralentissement de la croissance du périmètre crânien normal à la naissance conduisant à une microcéphalie modérée vers l’âge de 2 ans, associé à un déficit intellectuel[5].
+Un ralentissement de la croissance du périmètre crânien normal à la naissance conduisant à une microcéphalie modérée vers l’âge de 2 ans, associé à un déficit intellectuel.
 Dans plus de 50% des cas, on peut également avoir des signes associés
 Une hypopigmentation de la peau (peau pâle), des cheveux et des yeux souvent plus clairs que ceux de la famille en particulier dans le cas de délétion.
 Des particularités faciales
 Un strabisme
 Une incontinence salivaire (bavage) et une tendance à tout porter à la bouche
-Des troubles de l’alimentation avec reflux gastriques sévères, troubles de la déglutition, difficultés à mastiquer[6]
-Le rire paroxystique est caractéristique[7].
+Des troubles de l’alimentation avec reflux gastriques sévères, troubles de la déglutition, difficultés à mastiquer
+Le rire paroxystique est caractéristique.
 </t>
         </is>
       </c>
@@ -648,7 +668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Angelman</t>
+          <t>Syndrome_d'Angelman</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,7 +686,9 @@
           <t>Prise en charge et traitements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une prise en charge précoce est très favorable au  bon développement de l’enfant et à son épanouissement.
 En France, jusqu’à 3 ans, la socialisation en crèche ou en halte-garderie aide à l’épanouissement de l’enfant et permet le contact avec le milieu ordinaire. Après 3 ans, une prise en charge en I.M.E. est préconisée, mais il est possible aussi d’obtenir une scolarisation en maternelle, en présence d’une auxiliaire de vie scolaire, puis très rarement en CLIS.
@@ -677,7 +699,7 @@
 Il est également possible de faire progresser l’enfant et de varier ses activités grâce à des exercices cognitifs simples.
 Les troubles du sommeil nécessitent de mettre en place des rituels au moment du coucher, d’utiliser du matériel spécifique pour le couchage, et dans certains cas la prescription par le pédiatre ou le généticien de médicaments comme la mélatonine (il existe une forme à libération prolongée).
 Les traitements antiépileptiques sont prescrits dès les premières crises et sont maintenus entre les crises pour les prévenir.
-Une stimulation et un accompagnement spécifiques doivent être maintenus à l’âge adulte, dans le cadre d’un programme éducatif individualisé, pour permettre une vie heureuse et épanouie[8].
+Une stimulation et un accompagnement spécifiques doivent être maintenus à l’âge adulte, dans le cadre d’un programme éducatif individualisé, pour permettre une vie heureuse et épanouie.
 </t>
         </is>
       </c>
@@ -688,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Angelman</t>
+          <t>Syndrome_d'Angelman</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -706,10 +728,12 @@
           <t>Mouvements associatifs et mobilisateurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome a sa journée internationale le 15 février[9]. Cette journée a été créée grâce à un regroupement mondial de parents d'enfants atteints et à des organismes qui soutiennent le syndrome. Ce regroupement mondial de parents s'est formé sur Facebook.
-Depuis 2012, plusieurs associations nationales se sont regroupées pour former l'Angelman Syndrome Alliance. Elles sont aujourd'hui 15 associations membres ou partenaires. Cette alliance a pour buts de financer des projets de recherche génétique à l'échelle internationale mais également d'organiser des colloques internationaux sur le syndrome d'Angelman facilitant ainsi les échanges et les avancées scientifiques sur cette maladie génétique rare[10].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome a sa journée internationale le 15 février. Cette journée a été créée grâce à un regroupement mondial de parents d'enfants atteints et à des organismes qui soutiennent le syndrome. Ce regroupement mondial de parents s'est formé sur Facebook.
+Depuis 2012, plusieurs associations nationales se sont regroupées pour former l'Angelman Syndrome Alliance. Elles sont aujourd'hui 15 associations membres ou partenaires. Cette alliance a pour buts de financer des projets de recherche génétique à l'échelle internationale mais également d'organiser des colloques internationaux sur le syndrome d'Angelman facilitant ainsi les échanges et les avancées scientifiques sur cette maladie génétique rare.
 </t>
         </is>
       </c>
